--- a/data/output/FV2410_FV2404/ORDERS/17128.xlsx
+++ b/data/output/FV2410_FV2404/ORDERS/17128.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="270">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="270">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -914,6 +914,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U147" totalsRowShown="0">
+  <autoFilter ref="A1:U147"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,7 +1233,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8271,5 +8304,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/ORDERS/17128.xlsx
+++ b/data/output/FV2410_FV2404/ORDERS/17128.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4269,7 +4269,7 @@
         <v>254</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5027,7 +5027,7 @@
         <v>257</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5785,7 +5785,7 @@
         <v>259</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6201,7 +6201,7 @@
         <v>261</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6355,7 +6355,7 @@
         <v>261</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6513,7 +6513,7 @@
         <v>261</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6821,7 +6821,7 @@
         <v>263</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7387,7 +7387,7 @@
         <v>265</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7803,7 +7803,7 @@
         <v>267</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7957,7 +7957,7 @@
         <v>267</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8115,7 +8115,7 @@
         <v>267</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8669,7 +8669,7 @@
         <v>268</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N143" s="2"/>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N145" s="2"/>
